--- a/influencer-backend/assets/Invoice.xlsx
+++ b/influencer-backend/assets/Invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juneyoungseo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeyoung/development/open-dream/OpenDream_Invoice/influencer-backend/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83503B25-E382-E145-BAD0-E499A4001A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E3533F-B82C-374F-941C-98F93D0851E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="3" r:id="rId1"/>
@@ -76,47 +76,47 @@
   </si>
   <si>
     <t>Opendreamcompany Corp.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>402-k122, 13, Saimdang-ro 8-gil, Seocho-gu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Seoul, Republic of Korea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>82-10-2169-7498</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Website: ad.opendreamcorp.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Recipient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Instagram PR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Thank You For Your Service!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ADDRESS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Account info.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Account type: 普通</t>
@@ -128,29 +128,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="[$¥-411]#,##0.00_);\([$¥-411]#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="[$¥-411]#,##0.00_);\([$¥-411]#,##0.00\)"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color indexed="52"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -278,84 +266,54 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="1"/>
-      <color indexed="9"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <name val="Noto Sans JP"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans JP"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <sz val="28"/>
+      <color indexed="52"/>
+      <name val="Noto Sans JP"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Noto Sans JP"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <name val="Noto Sans JP"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="9"/>
+      <name val="Noto Sans JP"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Noto Sans JP"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans JP"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="12"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="4" tint="0.39997558519241921"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <name val="Noto Sans JP"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Noto Sans JP Medium"/>
     </font>
   </fonts>
   <fills count="24">
@@ -824,253 +782,241 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="38" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="40" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="42" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="38" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="37" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="36" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="41" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="35" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="40" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="32" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="29" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="39" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="34" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1158,15 +1104,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>302895</xdr:colOff>
+      <xdr:colOff>696595</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1177290</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>56508</xdr:rowOff>
+      <xdr:colOff>1570990</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1195,8 +1141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2607945" y="0"/>
-          <a:ext cx="874395" cy="881373"/>
+          <a:off x="3401695" y="165100"/>
+          <a:ext cx="874395" cy="831208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1440,302 +1386,301 @@
   </sheetPr>
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.59765625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="33.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="23" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="2" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1">
-      <c r="B10" s="19" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1">
-      <c r="B11" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="17">
-      <c r="B12" s="24"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" ht="10.25" customHeight="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" ht="15">
-      <c r="B14" s="26" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" ht="10.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="30"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1">
-      <c r="B18" s="34" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="20" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="37" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="2:6" ht="18" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="26">
         <f>SUM(F19:F23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="18" customHeight="1">
-      <c r="B25" s="46" t="s">
+    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="17" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="18" customHeight="1">
-      <c r="B26" s="31"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="17" t="s">
+    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="26">
         <f>F25*F24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="32"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="18" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18" customHeight="1" thickTop="1">
+    <row r="28" spans="2:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="16" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="37">
         <f>F24+F26+F27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="18" customHeight="1">
+    <row r="29" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="32"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="18" customHeight="1">
+      <c r="C29" s="33"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="32"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-    </row>
-    <row r="31" spans="2:6" ht="18" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" ht="16">
-      <c r="B34" s="43" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="B34" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1750,7 +1695,7 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.25"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
